--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3970.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3970.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.225535503687214</v>
+        <v>1.791191816329956</v>
       </c>
       <c r="B1">
-        <v>2.481899787289127</v>
+        <v>1.957111239433289</v>
       </c>
       <c r="C1">
-        <v>5.664240949607688</v>
+        <v>2.137034177780151</v>
       </c>
       <c r="D1">
-        <v>3.17413625969553</v>
+        <v>2.130621910095215</v>
       </c>
       <c r="E1">
-        <v>1.378159428151963</v>
+        <v>2.983489274978638</v>
       </c>
     </row>
   </sheetData>
